--- a/SVCareers_Automation_Testing_Project/Data/JobRequestReport.xlsx
+++ b/SVCareers_Automation_Testing_Project/Data/JobRequestReport.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,16 +541,45 @@
         <v>21</v>
       </c>
       <c r="K2" s="3">
-        <v>42767</v>
+        <v>42401</v>
       </c>
       <c r="L2" s="3">
-        <v>43069</v>
+        <v>43434</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D8">
+      <formula1>"IT,BPO,PST,SSS-Shared Services,SHILOH,GC-IT,DIGITAL"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4">
+      <formula1>"APL Logistics,Arbor Health,Arke"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C4">
+      <formula1>"India,Australia,Canada"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+      <formula1>"All,Active,Cancelled"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+      <formula1>".Net,Ab Initio,Admin"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"Confirmed,Pipeline"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+      <formula1>"All,Internal,External"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J4">
+      <formula1>"Spreeth B,Abilash N Gatti,Agnish  Ghosh"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4">
+      <formula1>"Created On,Needed By,Modified On"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
